--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,19 +525,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.280658475871907</v>
+        <v>0.3304176666666667</v>
       </c>
       <c r="H2">
-        <v>0.280658475871907</v>
+        <v>0.9912529999999999</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.2386370672583</v>
+        <v>0.298807</v>
       </c>
       <c r="N2">
-        <v>1.2386370672583</v>
+        <v>0.896421</v>
       </c>
       <c r="O2">
-        <v>0.7684031746175081</v>
+        <v>0.1375952161456007</v>
       </c>
       <c r="P2">
-        <v>0.7684031746175081</v>
+        <v>0.1375952161456007</v>
       </c>
       <c r="Q2">
-        <v>0.3476339914551633</v>
+        <v>0.09873111172366666</v>
       </c>
       <c r="R2">
-        <v>0.3476339914551633</v>
+        <v>0.888580005513</v>
       </c>
       <c r="S2">
-        <v>0.7684031746175081</v>
+        <v>0.1375952161456007</v>
       </c>
       <c r="T2">
-        <v>0.7684031746175081</v>
+        <v>0.1375952161456007</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,55 +587,117 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.3304176666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.9912529999999999</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1.244994333333333</v>
+      </c>
+      <c r="N3">
+        <v>3.734983</v>
+      </c>
+      <c r="O3">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="P3">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="Q3">
+        <v>0.4113681226332222</v>
+      </c>
+      <c r="R3">
+        <v>3.702313103699</v>
+      </c>
+      <c r="S3">
+        <v>0.5732973604870303</v>
+      </c>
+      <c r="T3">
+        <v>0.5732973604870303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.280658475871907</v>
-      </c>
-      <c r="H3">
-        <v>0.280658475871907</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0.373325387054649</v>
-      </c>
-      <c r="N3">
-        <v>0.373325387054649</v>
-      </c>
-      <c r="O3">
-        <v>0.2315968253824918</v>
-      </c>
-      <c r="P3">
-        <v>0.2315968253824918</v>
-      </c>
-      <c r="Q3">
-        <v>0.1047769341350476</v>
-      </c>
-      <c r="R3">
-        <v>0.1047769341350476</v>
-      </c>
-      <c r="S3">
-        <v>0.2315968253824918</v>
-      </c>
-      <c r="T3">
-        <v>0.2315968253824918</v>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.3304176666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.9912529999999999</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.6278366666666666</v>
+      </c>
+      <c r="N4">
+        <v>1.88351</v>
+      </c>
+      <c r="O4">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="P4">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="Q4">
+        <v>0.2074483264477777</v>
+      </c>
+      <c r="R4">
+        <v>1.86703493803</v>
+      </c>
+      <c r="S4">
+        <v>0.2891074233673691</v>
+      </c>
+      <c r="T4">
+        <v>0.2891074233673691</v>
       </c>
     </row>
   </sheetData>
